--- a/data/System_data.xlsx
+++ b/data/System_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/engineering/Documents/ElectricE/Transmission/HWs/IIProject/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\EIE-UCR\Docencia\Transmisión de Potencia\I-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF954B2E-188C-7344-98A7-A9080920D909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AFDE07-244F-4B75-BC3F-65D3F5D64D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="13420" windowHeight="14360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generators" sheetId="1" r:id="rId1"/>
@@ -449,17 +449,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -517,7 +513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -546,7 +542,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -575,7 +571,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -614,18 +610,12 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,7 +644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -683,7 +673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -712,7 +702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -741,7 +731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -779,13 +769,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D800D9-E4A8-4D05-BF66-E95C70419888}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +795,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -825,7 +815,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -845,7 +835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -862,7 +852,7 @@
         <v>40</v>
       </c>
       <c r="F4" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
